--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,6 +381,42 @@
   </si>
   <si>
     <t>根据小马科技的文档跟想法查找相应资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解小马科技说的SpringBoot框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考老师的数据库设计考虑项目的数据库情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与小马科技确定好相关文件的提供时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看已完成的用例规约描述，修改其错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤行为的用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级用户的后台考勤维护模块界面设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,13 +626,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76:C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -961,20 +997,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1075,12 +1111,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1181,12 +1217,12 @@
       <c r="D20" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1289,12 +1325,12 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1389,12 +1425,12 @@
       <c r="D42" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -1497,12 +1533,12 @@
       <c r="D52" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -1597,12 +1633,12 @@
       <c r="D62" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -1625,7 +1661,9 @@
       <c r="B66" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1635,7 +1673,9 @@
       <c r="B67" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D67" s="14"/>
     </row>
     <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -1645,7 +1685,9 @@
       <c r="B68" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1655,7 +1697,9 @@
       <c r="B69" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D69" s="14"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1665,7 +1709,9 @@
       <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1675,7 +1721,9 @@
       <c r="B71" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D71" s="14"/>
     </row>
     <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1684,18 +1732,119 @@
       <c r="C72" s="2"/>
       <c r="D72" s="3"/>
     </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+    </row>
+    <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="8"/>
+    </row>
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="14"/>
+    </row>
+    <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="94">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,30 @@
   </si>
   <si>
     <t>超级用户的后台考勤维护模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级用户的后台系统用户管理模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤行为的签到数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台考勤行为的用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超级用户的后台考勤记录管理跟考勤维护的查看界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按小马科技要求查看了解其所发的介绍的SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,13 +650,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76:C81"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -997,20 +1021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1111,12 +1135,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1217,12 +1241,12 @@
       <c r="D20" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1325,12 +1349,12 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1425,12 +1449,12 @@
       <c r="D42" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -1533,12 +1557,12 @@
       <c r="D52" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -1633,12 +1657,12 @@
       <c r="D62" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -1733,12 +1757,12 @@
       <c r="D72" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -1832,19 +1856,108 @@
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+    </row>
+    <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A34:D34"/>
+  <mergeCells count="12">
+    <mergeCell ref="A84:D84"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1008,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1885,7 +1885,9 @@
       <c r="B86" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1895,7 +1897,9 @@
       <c r="B87" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D87" s="14"/>
     </row>
     <row r="88" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -1905,7 +1909,9 @@
       <c r="B88" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D88" s="8"/>
     </row>
     <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1915,7 +1921,9 @@
       <c r="B89" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D89" s="14"/>
     </row>
     <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1925,7 +1933,9 @@
       <c r="B90" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1935,7 +1945,9 @@
       <c r="B91" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D91" s="14"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,30 @@
   </si>
   <si>
     <t>超级用户的后台考勤维护模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级用户的后台系统用户管理模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤行为的签到数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台考勤行为的用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改超级用户的后台考勤记录管理跟考勤维护的查看界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按小马科技要求查看了解其所发的介绍的SpringBoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,13 +650,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76:C81"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -997,20 +1021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1111,12 +1135,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1217,12 +1241,12 @@
       <c r="D20" s="20"/>
     </row>
     <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1325,12 +1349,12 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1425,12 +1449,12 @@
       <c r="D42" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -1533,12 +1557,12 @@
       <c r="D52" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -1633,12 +1657,12 @@
       <c r="D62" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -1733,12 +1757,12 @@
       <c r="D72" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -1832,19 +1856,120 @@
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+    </row>
+    <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="14"/>
+    </row>
+    <row r="88" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="14"/>
+    </row>
+    <row r="90" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="14"/>
+    </row>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A34:D34"/>
+  <mergeCells count="12">
+    <mergeCell ref="A84:D84"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="101">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,6 +441,34 @@
   </si>
   <si>
     <t>日期：2017.9.26 第五周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成超级用户的后台角色管理跟系统用户管理的新增界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成超级用户的后台角色管理模块界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将小马科技给的SpringBoot跑起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤行为模块数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台的考勤组织维护的查看跟查询用例规约描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解小马科技所说的开发工具idea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1956,8 +1984,97 @@
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
     </row>
+    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="8"/>
+    </row>
+    <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="14"/>
+    </row>
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="14"/>
+    </row>
+    <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A94:D94"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A1:D1"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2013,7 +2013,9 @@
       <c r="B96" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2023,7 +2025,9 @@
       <c r="B97" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D97" s="14"/>
     </row>
     <row r="98" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -2033,7 +2037,9 @@
       <c r="B98" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D98" s="8"/>
     </row>
     <row r="99" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2043,7 +2049,9 @@
       <c r="B99" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D99" s="14"/>
     </row>
     <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2053,7 +2061,9 @@
       <c r="B100" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2063,7 +2073,9 @@
       <c r="B101" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="D101" s="14"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="108">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,34 @@
   </si>
   <si>
     <t>了解小马科技所说的开发工具idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.16 第八周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成数据库设计文档的收尾工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论数据库接口文档的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据库的设计文档考虑数据库的接口文档的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看需求和后台界面设计考虑后台的接口文档的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论需求和后台界面设计考虑后台的接口文档的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看数据库设计文档完成部分是否合理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2084,8 +2112,97 @@
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
     </row>
+    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+    </row>
+    <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="14"/>
+    </row>
+    <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="14"/>
+    </row>
+    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="14"/>
+    </row>
+    <row r="112" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A104:D104"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A24:D24"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="109">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>查看数据库设计文档完成部分是否合理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1065,7 +1069,7 @@
   <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2141,7 +2145,9 @@
       <c r="B106" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2151,7 +2157,9 @@
       <c r="B107" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -2161,7 +2169,9 @@
       <c r="B108" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D108" s="8"/>
     </row>
     <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2171,7 +2181,9 @@
       <c r="B109" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D109" s="14"/>
     </row>
     <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2181,7 +2193,9 @@
       <c r="B110" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2191,7 +2205,9 @@
       <c r="B111" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D111" s="14"/>
     </row>
     <row r="112" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="116">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,34 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考讨论交流的意见修改数据库设计文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第八周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考讨论交流的意见修改接口文档的返回数据部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考讨论交流的意见修改接口文档的请求参数部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考讨论交流的意见完善数据库设计文档的字典类别表，字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论完成数据库的接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成数据库的接口文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1066,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2216,8 +2244,97 @@
       <c r="C112" s="2"/>
       <c r="D112" s="3"/>
     </row>
+    <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+    </row>
+    <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="14"/>
+    </row>
+    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="8"/>
+    </row>
+    <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="14"/>
+    </row>
+    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="14"/>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A114:D114"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A84:D84"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="123">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,6 +529,34 @@
   </si>
   <si>
     <t>初步完成数据库的接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.23 第九周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 第九周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一完善数据库接口文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一完善web接口文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一完善数据库设计文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试ionic+angular+cordova的相关案例实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学习部分ionic+angular+cordova的相关内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2273,7 +2301,9 @@
       <c r="B116" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D116" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2283,7 +2313,9 @@
       <c r="B117" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D117" s="14"/>
     </row>
     <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -2293,7 +2325,9 @@
       <c r="B118" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D118" s="8"/>
     </row>
     <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2303,7 +2337,9 @@
       <c r="B119" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D119" s="14"/>
     </row>
     <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2313,7 +2349,9 @@
       <c r="B120" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D120" s="3"/>
     </row>
     <row r="121" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2323,7 +2361,9 @@
       <c r="B121" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D121" s="14"/>
     </row>
     <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2332,18 +2372,208 @@
       <c r="C122" s="2"/>
       <c r="D122" s="3"/>
     </row>
+    <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+    </row>
+    <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D127" s="14"/>
+    </row>
+    <row r="128" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="14"/>
+    </row>
+    <row r="130" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D131" s="14"/>
+    </row>
+    <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="14"/>
+    </row>
+    <row r="138" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="8"/>
+    </row>
+    <row r="139" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="14"/>
+    </row>
+    <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="14"/>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="17">
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A114:D114"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A54:D54"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="128">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +557,25 @@
   </si>
   <si>
     <t>了解学习部分ionic+angular+cordova的相关内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学习部分ionic+angular+cordova的相关内容尝试以及相关案例实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学习部分ionic+angular+cordova的相关内容以及相关案例实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2501,7 +2520,9 @@
       <c r="B136" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2511,7 +2532,9 @@
       <c r="B137" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D137" s="14"/>
     </row>
     <row r="138" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -2521,7 +2544,9 @@
       <c r="B138" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D138" s="8"/>
     </row>
     <row r="139" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2531,7 +2556,9 @@
       <c r="B139" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D139" s="14"/>
     </row>
     <row r="140" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2541,7 +2568,9 @@
       <c r="B140" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D140" s="3"/>
     </row>
     <row r="141" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2551,7 +2580,9 @@
       <c r="B141" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D141" s="14"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2560,8 +2591,100 @@
       <c r="C142" s="2"/>
       <c r="D142" s="3"/>
     </row>
+    <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+    </row>
+    <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="14"/>
+    </row>
+    <row r="148" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="8"/>
+    </row>
+    <row r="149" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="14"/>
+    </row>
+    <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="14"/>
+    </row>
+    <row r="152" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A144:D144"/>
     <mergeCell ref="A124:D124"/>
     <mergeCell ref="A134:D134"/>
     <mergeCell ref="A1:D1"/>
@@ -2576,9 +2699,6 @@
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="130">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,15 +567,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.25 第九周 周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>了解学习部分ionic+angular+cordova的相关内容尝试以及相关案例实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>了解学习部分ionic+angular+cordova的相关内容以及相关案例实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三早上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装ionic相关软件完成但是运行项目出现错误需要解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +753,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -802,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1141,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2593,7 +2604,7 @@
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B144" s="15"/>
       <c r="C144" s="15"/>
@@ -2613,45 +2624,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" ht="90" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="148" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="8"/>
-    </row>
-    <row r="149" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="14"/>
+        <v>126</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="150" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -2660,7 +2687,9 @@
       <c r="B150" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D150" s="3"/>
     </row>
     <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2670,7 +2699,9 @@
       <c r="B151" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D151" s="14"/>
     </row>
     <row r="152" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2679,26 +2710,115 @@
       <c r="C152" s="2"/>
       <c r="D152" s="3"/>
     </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+    </row>
+    <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="14"/>
+    </row>
+    <row r="158" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="8"/>
+    </row>
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="14"/>
+    </row>
+    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="14"/>
+    </row>
+    <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2"/>
+      <c r="B162" s="7"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A144:D144"/>
     <mergeCell ref="A124:D124"/>
     <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A114:D114"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A64:D64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="138">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,6 +584,37 @@
   </si>
   <si>
     <t>安装ionic相关软件完成但是运行项目出现错误需要解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.30 第十周 周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学习后台显示所需的前端框架工具Bootstrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合小马科技给的SpringBoot框架了解相关内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台界面的“我的”模块界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台界面的“登录界面”界面代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,6 +825,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -810,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1152,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1167,20 +1198,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1269,10 +1300,10 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -1281,12 +1312,12 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1380,19 +1411,19 @@
       <c r="A20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
@@ -1495,12 +1526,12 @@
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1595,12 +1626,12 @@
       <c r="D42" s="3"/>
     </row>
     <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -1703,12 +1734,12 @@
       <c r="D52" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
@@ -1803,12 +1834,12 @@
       <c r="D62" s="3"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
@@ -1903,12 +1934,12 @@
       <c r="D72" s="3"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
@@ -2003,12 +2034,12 @@
       <c r="D82" s="3"/>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
@@ -2103,12 +2134,12 @@
       <c r="D92" s="3"/>
     </row>
     <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
@@ -2203,12 +2234,12 @@
       <c r="D102" s="3"/>
     </row>
     <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="15" t="s">
+      <c r="A104" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
@@ -2303,12 +2334,12 @@
       <c r="D112" s="3"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
@@ -2403,12 +2434,12 @@
       <c r="D122" s="3"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
@@ -2503,12 +2534,12 @@
       <c r="D132" s="3"/>
     </row>
     <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
@@ -2603,12 +2634,12 @@
       <c r="D142" s="3"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
@@ -2634,7 +2665,7 @@
       <c r="C146" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D146" s="21" t="s">
+      <c r="D146" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2648,7 +2679,7 @@
       <c r="C147" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2662,7 +2693,7 @@
       <c r="C148" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="D148" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2676,7 +2707,7 @@
       <c r="C149" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="D149" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2711,12 +2742,12 @@
       <c r="D152" s="3"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A154" s="15" t="s">
+      <c r="A154" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
@@ -2739,7 +2770,9 @@
       <c r="B156" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="D156" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2749,7 +2782,9 @@
       <c r="B157" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D157" s="14"/>
     </row>
     <row r="158" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
@@ -2759,7 +2794,9 @@
       <c r="B158" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2769,7 +2806,9 @@
       <c r="B159" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D159" s="14"/>
     </row>
     <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2779,7 +2818,9 @@
       <c r="B160" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D160" s="3"/>
     </row>
     <row r="161" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2789,7 +2830,9 @@
       <c r="B161" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="D161" s="14"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2798,8 +2841,100 @@
       <c r="C162" s="2"/>
       <c r="D162" s="3"/>
     </row>
+    <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+    </row>
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="14"/>
+    </row>
+    <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="8"/>
+    </row>
+    <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="14"/>
+    </row>
+    <row r="170" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="14"/>
+    </row>
+    <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A164:D164"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A64:D64"/>
@@ -2816,9 +2951,6 @@
     <mergeCell ref="A124:D124"/>
     <mergeCell ref="A134:D134"/>
     <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A84:D84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="144">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +615,30 @@
   </si>
   <si>
     <t>完成前台界面的“登录界面”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台界面的“首页”模块界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台界面的“注册界面”界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第十周 周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2870,7 +2894,9 @@
       <c r="B166" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2880,7 +2906,9 @@
       <c r="B167" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C167" s="2"/>
+      <c r="C167" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="D167" s="14"/>
     </row>
     <row r="168" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -2890,7 +2918,9 @@
       <c r="B168" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D168" s="8"/>
     </row>
     <row r="169" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2900,7 +2930,9 @@
       <c r="B169" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D169" s="14"/>
     </row>
     <row r="170" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
@@ -2910,7 +2942,9 @@
       <c r="B170" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D170" s="3"/>
     </row>
     <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2920,7 +2954,9 @@
       <c r="B171" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C171" s="2"/>
+      <c r="C171" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D171" s="14"/>
     </row>
     <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2929,8 +2965,102 @@
       <c r="C172" s="2"/>
       <c r="D172" s="3"/>
     </row>
+    <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+    </row>
+    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="14"/>
+    </row>
+    <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="8"/>
+    </row>
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="14"/>
+    </row>
+    <row r="180" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="14"/>
+    </row>
+    <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A84:D84"/>
@@ -2939,11 +3069,6 @@
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A34:D34"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="155">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,6 +639,50 @@
   </si>
   <si>
     <t>日期：2017.10.31 第十周 周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为数据库的字典类别表录入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台界面的“邮箱验证”模块界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台界面的“重置密码”模块界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试结合Bookstrap使用idea工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合小马科技给的SpringBoot使用idea工具</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D182"/>
+  <dimension ref="A1:D192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:D174"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2994,18 +3038,24 @@
       <c r="B176" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D176" s="3"/>
     </row>
-    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C177" s="2"/>
-      <c r="D177" s="14"/>
+      <c r="C177" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="178" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3014,18 +3064,24 @@
       <c r="B178" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D178" s="8"/>
     </row>
-    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" ht="45" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C179" s="2"/>
-      <c r="D179" s="14"/>
+      <c r="C179" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="180" spans="1:4" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
@@ -3034,7 +3090,9 @@
       <c r="B180" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D180" s="3"/>
     </row>
     <row r="181" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3044,7 +3102,9 @@
       <c r="B181" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D181" s="14"/>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3053,8 +3113,111 @@
       <c r="C182" s="2"/>
       <c r="D182" s="3"/>
     </row>
+    <row r="184" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+    </row>
+    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A185" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D188" s="8"/>
+    </row>
+    <row r="189" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D189" s="8"/>
+    </row>
+    <row r="190" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D191" s="14"/>
+    </row>
+    <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2"/>
+      <c r="B192" s="7"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="A184:D184"/>
     <mergeCell ref="A174:D174"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="162">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +683,34 @@
   </si>
   <si>
     <t>结合小马科技给的SpringBoot使用idea工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为数据库的字典数据表录入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为数据库的用户账户表录入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后台界面的主菜单栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取前台界面需要使用到的图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前台界面的“忘记密码”模块界面代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第十一周 周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D192"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3193,7 +3221,7 @@
         <v>154</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D190" s="3"/>
     </row>
@@ -3215,8 +3243,103 @@
       <c r="C192" s="2"/>
       <c r="D192" s="3"/>
     </row>
+    <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+    </row>
+    <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A195" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="8"/>
+    </row>
+    <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="8"/>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="8"/>
+    </row>
+    <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="14"/>
+    </row>
+    <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2"/>
+      <c r="B202" s="7"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A114:D114"/>
     <mergeCell ref="A184:D184"/>
     <mergeCell ref="A174:D174"/>
     <mergeCell ref="A1:D1"/>
@@ -3233,12 +3356,6 @@
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A154:D154"/>
     <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A114:D114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第八组（小马）/第八小组计划实施表.xlsx
+++ b/第八组（小马）/第八小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="165">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -710,7 +710,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.11.6 第十一周 周一</t>
+    <t>日期：2017.11.6 第十一周 周一周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.15 第十二周 周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：目前按照提交的总计划书进行中，移动端界面跟网页端界面已经完成，正在进行数据交互部分代码的编写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +806,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -874,13 +886,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,6 +994,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1279,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A214" sqref="A214:D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3272,7 +3344,9 @@
       <c r="B196" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C196" s="2"/>
+      <c r="C196" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D196" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -3282,7 +3356,9 @@
       <c r="B197" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C197" s="2"/>
+      <c r="C197" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D197" s="8"/>
     </row>
     <row r="198" spans="1:4" ht="45" x14ac:dyDescent="0.15">
@@ -3292,7 +3368,9 @@
       <c r="B198" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C198" s="2"/>
+      <c r="C198" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3302,7 +3380,9 @@
       <c r="B199" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C199" s="2"/>
+      <c r="C199" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D199" s="8"/>
     </row>
     <row r="200" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3312,7 +3392,9 @@
       <c r="B200" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C200" s="2"/>
+      <c r="C200" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D200" s="3"/>
     </row>
     <row r="201" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3322,7 +3404,9 @@
       <c r="B201" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C201" s="2"/>
+      <c r="C201" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="D201" s="14"/>
     </row>
     <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3331,8 +3415,110 @@
       <c r="C202" s="2"/>
       <c r="D202" s="3"/>
     </row>
+    <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+    </row>
+    <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A205" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" s="13"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A207" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" s="13"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="8"/>
+    </row>
+    <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="13"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="8"/>
+    </row>
+    <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="13"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="8"/>
+    </row>
+    <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" s="8"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B211" s="13"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="14"/>
+    </row>
+    <row r="212" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2"/>
+      <c r="B212" s="7"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="3"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B214" s="23"/>
+      <c r="C214" s="23"/>
+      <c r="D214" s="24"/>
+    </row>
+    <row r="215" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="25"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A214:D215"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A194:D194"/>
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="A34:D34"/>
@@ -3342,20 +3528,10 @@
     <mergeCell ref="A114:D114"/>
     <mergeCell ref="A184:D184"/>
     <mergeCell ref="A174:D174"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A94:D94"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A164:D164"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A54:D54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
